--- a/Zeszyt1.xlsx
+++ b/Zeszyt1.xlsx
@@ -8,13 +8,79 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D891FEE-CE25-4060-A3B4-AAFFC56C86C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D127D5E-891C-4AD9-BD80-782BFFD09F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4EA3C6F6-2F69-43A2-8D86-6BD2C11434B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4EA3C6F6-2F69-43A2-8D86-6BD2C11434B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Arkusz1!$B$7:$C$7</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Arkusz2!$C$9:$E$9</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Arkusz1!$B$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Arkusz2!$C$12:$C$14</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Arkusz1!$B$9</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Arkusz1!$B$11</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Arkusz2!$C$15</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Arkusz1!$D$3</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Arkusz2!$D$12:$D$14</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Arkusz1!$D$2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">12</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,8 +99,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>kalorie</t>
   </si>
@@ -61,13 +149,16 @@
   </si>
   <si>
     <t>CEL</t>
+  </si>
+  <si>
+    <t>x3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +175,22 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,11 +237,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -447,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCB063E-9ACF-4716-8906-CB1DB42E3540}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,54 +572,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>18</v>
       </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -515,31 +632,176 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.25000000000000006</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2">
         <f>SUMPRODUCT(B2:C2,$B$7:$C$7)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2">
         <f>SUMPRODUCT(B3:C3,$B$7:$C$7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3">
         <f>SUMPRODUCT(B4:C4,$B$7:$C$7)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EEAF76-BDE5-4B3F-877E-F465FA4EB40B}">
+  <dimension ref="B2:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" cm="1">
+        <f t="array" ref="G10:G12">MMULT(B2:D4,TRANSPOSE(C9:E9))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>SUMPRODUCT(B2:D2,$C$9:$E$9)</f>
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f>E2</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" ref="C13:C14" si="0">SUMPRODUCT(B3:D3,$C$9:$E$9)</f>
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D14" si="1">E3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>SUM(C12:C14)</f>
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D12:D14)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>